--- a/history_subscriptions.xlsx
+++ b/history_subscriptions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>Cellushape</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>8 - 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -550,6 +555,7 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -613,6 +619,7 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -674,6 +681,7 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -739,6 +747,7 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -800,6 +809,7 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -861,6 +871,7 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -926,6 +937,7 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -987,6 +999,7 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1048,6 +1061,7 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1159,6 +1173,7 @@
       <c r="K11" t="n">
         <v>7</v>
       </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1234,6 +1249,7 @@
       <c r="K12" t="n">
         <v>0</v>
       </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1299,6 +1315,7 @@
       <c r="K13" t="n">
         <v>0</v>
       </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1362,6 +1379,7 @@
       <c r="K14" t="n">
         <v>0</v>
       </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1427,6 +1445,7 @@
       <c r="K15" t="n">
         <v>0</v>
       </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1494,6 +1513,7 @@
       <c r="K16" t="n">
         <v>5</v>
       </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1559,6 +1579,7 @@
       <c r="K17" t="n">
         <v>0</v>
       </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1624,6 +1645,7 @@
       <c r="K18" t="n">
         <v>0</v>
       </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1685,6 +1707,7 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1748,6 +1771,7 @@
       <c r="K20" t="n">
         <v>0</v>
       </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1809,6 +1833,7 @@
       <c r="K21" t="n">
         <v>0</v>
       </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1874,6 +1899,7 @@
       <c r="K22" t="n">
         <v>0</v>
       </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1939,6 +1965,7 @@
       <c r="K23" t="n">
         <v>0</v>
       </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2000,6 +2027,7 @@
       <c r="K24" t="n">
         <v>0</v>
       </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2067,6 +2095,7 @@
       <c r="K25" t="n">
         <v>4</v>
       </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2128,6 +2157,7 @@
       <c r="K26" t="n">
         <v>0</v>
       </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2189,6 +2219,7 @@
       <c r="K27" t="n">
         <v>0</v>
       </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2254,6 +2285,7 @@
       <c r="K28" t="n">
         <v>0</v>
       </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2316,6 +2348,7 @@
       <c r="K29" t="n">
         <v>0</v>
       </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2377,6 +2410,7 @@
       <c r="K30" t="n">
         <v>0</v>
       </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2488,6 +2522,7 @@
       <c r="K31" t="n">
         <v>6</v>
       </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2563,6 +2598,7 @@
       <c r="K32" t="n">
         <v>0</v>
       </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2628,6 +2664,7 @@
       <c r="K33" t="n">
         <v>0</v>
       </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2691,6 +2728,7 @@
       <c r="K34" t="n">
         <v>0</v>
       </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2756,6 +2794,7 @@
       <c r="K35" t="n">
         <v>0</v>
       </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2817,6 +2856,7 @@
       <c r="K36" t="n">
         <v>0</v>
       </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2884,6 +2924,7 @@
       <c r="K37" t="n">
         <v>4</v>
       </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2949,6 +2990,7 @@
       <c r="K38" t="n">
         <v>0</v>
       </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3014,6 +3056,7 @@
       <c r="K39" t="n">
         <v>0</v>
       </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3075,6 +3118,7 @@
       <c r="K40" t="n">
         <v>0</v>
       </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3138,6 +3182,7 @@
       <c r="K41" t="n">
         <v>0</v>
       </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3199,6 +3244,7 @@
       <c r="K42" t="n">
         <v>0</v>
       </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3264,6 +3310,7 @@
       <c r="K43" t="n">
         <v>0</v>
       </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3325,6 +3372,7 @@
       <c r="K44" t="n">
         <v>0</v>
       </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3386,6 +3434,7 @@
       <c r="K45" t="n">
         <v>0</v>
       </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3447,6 +3496,7 @@
       <c r="K46" t="n">
         <v>0</v>
       </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3512,6 +3562,7 @@
       <c r="K47" t="n">
         <v>0</v>
       </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3573,6 +3624,7 @@
       <c r="K48" t="n">
         <v>0</v>
       </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3638,6 +3690,7 @@
       <c r="K49" t="n">
         <v>0</v>
       </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3705,6 +3758,7 @@
       <c r="K50" t="n">
         <v>3</v>
       </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3766,6 +3820,7 @@
       <c r="K51" t="n">
         <v>0</v>
       </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3843,6 +3898,7 @@
       <c r="K52" t="n">
         <v>1</v>
       </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3904,6 +3960,7 @@
       <c r="K53" t="n">
         <v>0</v>
       </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3967,6 +4024,7 @@
       <c r="K54" t="n">
         <v>0</v>
       </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4047,6 +4105,7 @@
       <c r="K55" t="n">
         <v>0</v>
       </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4108,6 +4167,7 @@
       <c r="K56" t="n">
         <v>0</v>
       </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4169,6 +4229,7 @@
       <c r="K57" t="n">
         <v>0</v>
       </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4230,6 +4291,7 @@
       <c r="K58" t="n">
         <v>0</v>
       </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4295,6 +4357,7 @@
       <c r="K59" t="n">
         <v>0</v>
       </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4356,6 +4419,7 @@
       <c r="K60" t="n">
         <v>0</v>
       </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4417,6 +4481,7 @@
       <c r="K61" t="n">
         <v>0</v>
       </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4480,6 +4545,7 @@
       <c r="K62" t="n">
         <v>0</v>
       </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4541,6 +4607,7 @@
       <c r="K63" t="n">
         <v>0</v>
       </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4603,6 +4670,7 @@
       <c r="K64" t="n">
         <v>0</v>
       </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4664,6 +4732,7 @@
       <c r="K65" t="n">
         <v>0</v>
       </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4725,6 +4794,7 @@
       <c r="K66" t="n">
         <v>0</v>
       </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4788,6 +4858,7 @@
       <c r="K67" t="n">
         <v>0</v>
       </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4899,6 +4970,7 @@
       <c r="K68" t="n">
         <v>5</v>
       </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4974,6 +5046,7 @@
       <c r="K69" t="n">
         <v>0</v>
       </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5049,6 +5122,7 @@
       <c r="K70" t="n">
         <v>0</v>
       </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5114,6 +5188,7 @@
       <c r="K71" t="n">
         <v>0</v>
       </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5177,6 +5252,7 @@
       <c r="K72" t="n">
         <v>0</v>
       </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5240,6 +5316,7 @@
       <c r="K73" t="n">
         <v>0</v>
       </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5305,6 +5382,7 @@
       <c r="K74" t="n">
         <v>0</v>
       </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5370,6 +5448,7 @@
       <c r="K75" t="n">
         <v>0</v>
       </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5435,6 +5514,7 @@
       <c r="K76" t="n">
         <v>0</v>
       </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5496,6 +5576,7 @@
       <c r="K77" t="n">
         <v>0</v>
       </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5559,6 +5640,7 @@
       <c r="K78" t="n">
         <v>0</v>
       </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5620,6 +5702,7 @@
       <c r="K79" t="n">
         <v>0</v>
       </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5681,6 +5764,7 @@
       <c r="K80" t="n">
         <v>0</v>
       </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5748,6 +5832,7 @@
       <c r="K81" t="n">
         <v>3</v>
       </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5815,6 +5900,7 @@
       <c r="K82" t="n">
         <v>0</v>
       </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5876,6 +5962,7 @@
       <c r="K83" t="n">
         <v>0</v>
       </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5941,6 +6028,7 @@
       <c r="K84" t="n">
         <v>0</v>
       </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6002,6 +6090,7 @@
       <c r="K85" t="n">
         <v>0</v>
       </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6065,6 +6154,3503 @@
       <c r="K86" t="n">
         <v>0</v>
       </c>
+      <c r="L86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Alvis Giselia</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bubb: 7
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Bubb: 13
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Bubb: 9
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1 - 2025-0218-NEWTO - 05/12/2025
+PINK 6 x 1 (residual: 54)</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>54</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Barbalat Ella</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Bubb: 7
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Bubb: 10
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1 - 2025-0221-NEWTO - 05/14/2025
+PINK 3 x 1 (residual: 24)</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>24</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Barbalat Yana</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Bubb: 8
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Bubb: 12
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Bubb: 11
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1 - 2025-0086-NEWTO - 04/25/2025
+PINK 3 x 1 (residual: 30)
+2 - 2025-0217-NEWTO - 05/09/2025
+Adjustment Contract Bubble x 42 (residual: 11)
+3 - 2025-0314-NEWTO - 08/05/2025
+PINK 6 x 1 (residual: 84)</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>95</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Cohen Dana</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Bubb: 12
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Bubb: 9
+Cell: 1</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Bubb: 14
+Cell: 1</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1 - 2025-0060-NEWTO - 03/21/2025
+PINK 3 x 1 (residual: 30)
+2 - 2025-0083-NEWTO - 04/25/2025
+PINK 3 x 1 (residual: 30)
+3 - 2025-0182-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 56 (residual: 20)
+4 - 2025-0258-NEWTO - 06/06/2025
+5 Icoone Total x 1 (residual: 3)</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>20</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Doucette Michelle</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Bubb: 7
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Bubb: 11
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Bubb: 8
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1 - 2025-0219-NEWTO - 05/13/2025
+Adjustment Contract Bubble x 100 (residual: 74)</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>74</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Kahana Sara</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1 - 2025-0315-NEWTO - 08/01/2025
+30 sessions x 1 (residual: 30)</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>30</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Pleskow Heather</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Bubb: 3
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1 - 2025-0310-NEWTO - 07/26/2025
+PINK 6 x 1 (residual: 81)</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>81</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Swyers Karen</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bubb: 2 + (7 try)
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Bubb: 8 + (5 try)
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Bubb: 14
+Cell: 3</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1 - 2025-0213-NEWTO - 05/09/2025
+Adjustment Contract Bubble x 2 (residual: 0)
+0 - 2025-0220-NEWTO - 05/13/2025
+1 month x 1 (residual: 1)
+2 - 2025-0266-NEWTO - 06/13/2025
+PINK 3 x 1 (residual: 20)
+3 - 2025-0287-NEWTO - 07/02/2025
+5 Icoone Total x 1 (residual: 2)</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>21</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Theodorou Maria</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Bubb: 10
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Bubb: 13
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Bubb: 13
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0 - 2025-0049-NEWTO - 03/07/2025
+1 month x 1 (residual: 10)
+1 - 2025-0072-NEWTO - 04/09/2025
+PINK 3 x 1 (residual: 30)
+2 - 2025-0214-NEWTO - 05/09/2025
+Adjustment Contract Bubble x 29 (residual: 0)
+3 - 2025-0302-NEWTO - 07/14/2025
+PINK 6 x 1 (residual: 76)</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>76</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Aejaz Henna</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bubb: 13
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Bubb: 15
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Bubb: 11
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1 - 2025-0057-NEWTO - 03/17/2025
+30 sessions x 1 (residual: 30)
+2 - 2025-0099-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 11 (residual: 0)
+3 - 2025-0260-NEWTO - 06/09/2025
+PINK 3 x 1 (residual: 22)</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>22</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Alvis Giselia</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Bubb: 7
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Bubb: 13
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Bubb: 9
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1 - 2025-0218-NEWTO - 05/12/2025
+PINK 6 x 1 (residual: 53)</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>53</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Bubb: 2
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Barbalat Ella</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Bubb: 7
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Bubb: 10
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1 - 2025-0221-NEWTO - 05/14/2025
+PINK 3 x 1 (residual: 23)</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>23</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Bubb: 2
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Barbalat Yana</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Bubb: 8
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Bubb: 12
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Bubb: 11
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1 - 2025-0086-NEWTO - 04/25/2025
+PINK 3 x 1 (residual: 30)
+2 - 2025-0217-NEWTO - 05/09/2025
+Adjustment Contract Bubble x 42 (residual: 10)
+3 - 2025-0314-NEWTO - 08/05/2025
+PINK 6 x 1 (residual: 84)</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>94</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Bedikian Milka</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Bubb: 2
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Bubb: 4
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Bubb: 15
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>1 - 2025-0040-NEWTO - 02/20/2025
+PINK 3 x 1 (residual: 30)
+2 - 2025-0055-NEWTO - 03/14/2025
+PINK 3 x 1 (residual: 30)
+3 - 2025-0101-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 56 (residual: 35)</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>35</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Berlin Galina</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1 - 2025-0222-NEWTO - 05/14/2025
+PINK 3 x 1 (residual: 42)</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>42</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Blumberg Sanya</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>0 - 2025-0299-NEWTO - 07/11/2025
+1 month x 1 (residual: 10)</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>10</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Bullard Samantha</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1 - 2025-0241-NEWTO - 05/27/2025
+30 sessions x 1 (residual: 28)</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>28</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Campasso Cristina</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1 - 2025-0313-NEWTO - 07/29/2025
+Adjustment Contract Bubble x 10 (residual: 10)</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>10</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Chaichueathip Sangthip</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Bubb: 2
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Bubb: 7
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Bubb: 7
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1 - 2025-0232-NEWTO - 05/20/2025
+30 sessions x 1 (residual: 14)</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>14</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Cohen Dana</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Bubb: 12
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Bubb: 9
+Cell: 1</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Bubb: 14
+Cell: 1</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1 - 2025-0060-NEWTO - 03/21/2025
+PINK 3 x 1 (residual: 30)
+2 - 2025-0083-NEWTO - 04/25/2025
+PINK 3 x 1 (residual: 30)
+3 - 2025-0182-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 56 (residual: 19)
+4 - 2025-0258-NEWTO - 06/06/2025
+5 Icoone Total x 1 (residual: 3)</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>19</v>
+      </c>
+      <c r="K106" t="n">
+        <v>3</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Bubb: 2
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Colberth Jen</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>0 - 2025-0284-NEWTO - 06/30/2025
+Drop In Session x 1 (residual: 1)</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>dalarcao irina</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1 - 2024-0024-NEWTO - 03/18/2024
+30 sessions x 1 (residual: 30)
+2 - 2024-0025-NEWTO - 03/18/2024
+focus 10 x 1 (residual: 10)
+3 - 2024-0026-NEWTO - 03/18/2024
+60 sessions x 1 (residual: 60)
+4 - 2024-0153-NEWTO - 03/27/2024
+focus 30 x 1 (residual: 30)
+5 - 2024-0292-NEWTO - 08/26/2024
+focus 10 x 1 (residual: 10)
+6 - 2024-0302-NEWTO - 09/05/2024
+total 10 x 1 (residual: 10)
+7 - 2024-0374-NEWTO - 12/09/2024
+60 sessions x 1 (residual: 60)
+8 - 2025-0113-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 10 (residual: 10)
+0 - 2025-0274-NEWTO - 06/20/2025
+1 Total Icoone x 1 (residual: 1)</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>10</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Doucette Michelle</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bubb: 7
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Bubb: 11
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Bubb: 8
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1 - 2025-0219-NEWTO - 05/13/2025
+Adjustment Contract Bubble x 100 (residual: 73)</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>73</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Elkind Stephanie</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bubb: 2
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Bubb: 11
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1 - 2023-0008-NEWTO - 01/06/2023
+PINK 3 x 1 (residual: 0)
+0 - 2023-0065-NEWTO - 02/10/2023
+1 month x 1 (residual: 12)
+2 - 2023-0091-NEWTO - 03/09/2023
+total 10 x 1 (residual: 10)
+3 - 2023-0123-NEWTO - 04/10/2023
+PINK 12 x 1 (residual: 83)
+4 - 2023-0170-NEWTO - 05/17/2023
+total 10 x 1 (residual: 10)
+focus 10 x 1 (residual: 10)
+5 - 2024-0032-NEWTO - 03/18/2024
+total 30 x 1 (residual: 30)
+6 - 2024-0189-NEWTO - 04/26/2024
+PINK 12 x 1 (residual: 120)
+0 - 2025-0027-NEWTO - 02/04/2025
+1 month x 1 (residual: 10)
+7 - 2025-0108-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 31 (residual: 18)
+8 - 2025-0243-NEWTO - 05/28/2025
+60 sessions x 1 (residual: 60)</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>78</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Evans Gretchen</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1 - 2025-0053-NEWTO - 03/13/2025
+PINK 3 x 1 (residual: 30)</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Flynn Lindsay</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Bubb: 4
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1 - 2025-0300-NEWTO - 07/11/2025
+30 sessions x 1 (residual: 24)</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>24</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Bubb: 2
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Ganguly Shree</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1 - 2025-0305-NEWTO - 07/19/2025
+30 sessions x 1 (residual: 29)</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>29</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Gardner Annabelle</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Bubb: 0 + (3 try)
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Bubb: 0 + (7 try)
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>0 - 2025-0273-NEWTO - 06/18/2025
+Daughter Package Sessions x 1 (residual: 0)
+0 - 2025-0311-NEWTO - 07/29/2025
+Daughter Package Sessions x 1 (residual: 10)</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>10</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Hadar Nicole</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Bubb: 0 + (5 try)
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>0 - 2025-0304-NEWTO - 07/19/2025
+Daughter Package Sessions x 1 (residual: 5)</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>5</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Henderson Lauren Nicole</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bubb: 7
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Bubb: 3
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1 - 2025-0136-NEWTO - 05/06/2025
+PINK 3 x 1 (residual: 32)</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>32</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Jacobs Ellen</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>0 - 2025-0036-NEWTO - 02/13/2025
+Welcome kit x 1 (residual: 3)</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Kahana Sara</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>1 - 2025-0315-NEWTO - 08/01/2025
+30 sessions x 1 (residual: 29)</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>29</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Keuchakarian Joelle</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Bubb: 2
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>0 - 2025-0079-NEWTO - 04/18/2025
+1 month x 1 (residual: 10)
+1 - 2025-0193-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 6 (residual: 4)</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>4</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Koshnitsky Natalya</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Bubb: 4
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Bubb: 5
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Bubb: 2
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1 - 2025-0133-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 14 (residual: 3)</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>3</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Lanciloti Violet</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bubb: 0 + (1 try)
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Bubb: 0 + (4 try)
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Bubb: 0 + (4 try)
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>0 - 2025-0235-NEWTO - 05/23/2025
+Daughter Package Sessions x 1 (residual: 1)
+1 - 2025-0234-NEWTO - 05/23/2025
+0 - 2025-0308-NEWTO - 08/04/2025
+Daughter Package Sessions x 1 (residual: 10)</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>11</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Levin Luba</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Bubb: 8
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Bubb: 10
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Bubb: 11
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>1 - 2025-0138-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 180 (residual: 150)</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>150</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Liu Vivian</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Bubb: 0 + (1 try)
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>0 - 2025-0290-NEWTO - 06/01/2025
+Welcome kit x 1 (residual: 2)</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>2</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Lubin Susan</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>1 - 2025-0059-NEWTO - 03/18/2025
+30 sessions x 1 (residual: 30)
+2 - 2025-0143-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 22 (residual: 22)</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>22</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>McDonald Devon</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Bubb: 8 + (1 try)
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Bubb: 9
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>1 - 2021-0262-NEWTO - 12/21/2021
+PINK 3 x 1 (residual: 0)
+2 - 2022-0027-NEWTO - 02/07/2022
+from 3 pink to 6 pink x 1 (residual: 0)
+3 - 2022-0205-NEWTO - 07/07/2022
+PINK 6 x 1 (residual: 0)
+4 - 2023-0026-NEWTO - 01/12/2023
+PINK 6 x 1 (residual: 0)
+5 - 2023-0236-NEWTO - 07/14/2023
+PINK 12 x 1 (residual: 111)
+6 - 2024-0237-NEWTO - 06/19/2024
+PINK 12 x 1 (residual: 120)
+7 - 2025-0210-NEWTO - 05/09/2025
+Adjustment Contract Bubble x 42 (residual: 24)
+0 - 2025-0237-NEWTO - 05/16/2025
+Drop In Session x 1 (residual: 0)</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>24</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Megrian Katie</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Bubb: 3
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Bubb: 8
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Bubb: 6
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>1 - 2023-0028-NEWTO - 01/16/2023
+PINK 3 x 1 (residual: 0)
+2 - 2023-0043-NEWTO - 01/30/2023
+total 20 x 1 (residual: 20)
+3 - 2023-0124-NEWTO - 04/10/2023
+PINK 3 x 1 (residual: 0)
+4 - 2023-0146-NEWTO - 04/28/2023
+total 20 x 1 (residual: 20)
+5 - 2023-0243-NEWTO - 07/18/2023
+PINK 6 x 1 (residual: 60)
+0 - 2025-0034-NEWTO - 02/12/2025
+1 month x 1 (residual: 10)
+6 - 2025-0064-NEWTO - 03/24/2025
+PINK 6 x 1 (residual: 60)
+7 - 2025-0152-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 94 (residual: 77)</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>77</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Morson Jessica</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Bubb: 0 + (4 try)
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>0 - 2025-0283-NEWTO - 06/30/2025
+summer 5 x 1 (residual: 4)
+0 - 2025-0289-NEWTO - 07/02/2025
+Welcome kit x 1 (residual: 0)</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>4</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Natapov Maria</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Bubb: 6
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Bubb: 16
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Bubb: 4
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>1 - 2025-0070-NEWTO - 04/07/2025
+PINK 3 x 1 (residual: 30)
+2 - 2025-0184-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 28 (residual: 2)</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Notaroberto Rosa</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bubb: 4
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Bubb: 11
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Bubb: 6
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>1 - 2025-0068-NEWTO - 03/31/2025
+PINK 3 x 1 (residual: 30)
+2 - 2025-0144-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 28 (residual: 7)
+3 - 2025-0282-NEWTO - 08/01/2025
+PINK 6 x 1 (residual: 84)</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>91</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Parker Marilyn</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Bubb: 8
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>1 - 2025-0038-NEWTO - 02/18/2025
+30 sessions x 1 (residual: 30)
+2 - 2025-0052-NEWTO - 03/13/2025
+30 sessions x 1 (residual: 30)
+3 - 2025-0176-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 39 (residual: 30)</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>30</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Perullo Kristen</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>0 - 2024-0356-NEWTO - 11/21/2024
+1 month x 1 (residual: 10)
+0 - 2025-0010-NEWTO - 01/08/2025
+1 month x 2 (residual: 20)
+1 - 2025-0231-NEWTO - 05/20/2025
+Adjustment Contract Bubble x 14 (residual: 14)</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>14</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Pleskow Heather</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Bubb: 3
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>1 - 2025-0310-NEWTO - 07/26/2025
+PINK 6 x 1 (residual: 80)</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>80</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SCOTTO DANIELA</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>1 - 2025-0065-NEWTO - 03/26/2025
+30 sessions x 1 (residual: 30)</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Sims Maria</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>0 - 2024-0311-NEWTO - 09/26/2024
+1 month x 1 (residual: 10)
+0 - 2025-0296-NEWTO - 07/09/2025
+1 month x 1 (residual: 10)</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>10</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Sky Babushkina Natasha</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Bubb: 1
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Bubb: 7
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Bubb: 3
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>1 - 2025-0240-NEWTO - 05/27/2025
+PINK 3 x 1 (residual: 31)</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>31</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Swyers Karen</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Bubb: 2 + (7 try)
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Bubb: 8 + (5 try)
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Bubb: 14
+Cell: 3</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>1 - 2025-0213-NEWTO - 05/09/2025
+Adjustment Contract Bubble x 2 (residual: 0)
+0 - 2025-0220-NEWTO - 05/13/2025
+1 month x 1 (residual: 1)
+2 - 2025-0266-NEWTO - 06/13/2025
+PINK 3 x 1 (residual: 19)
+3 - 2025-0287-NEWTO - 07/02/2025
+5 Icoone Total x 1 (residual: 2)</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>20</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Bubb: 2
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Theodorou Maria</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Bubb: 10
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Bubb: 13
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Bubb: 13
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>0 - 2025-0049-NEWTO - 03/07/2025
+1 month x 1 (residual: 10)
+1 - 2025-0072-NEWTO - 04/09/2025
+PINK 3 x 1 (residual: 30)
+2 - 2025-0214-NEWTO - 05/09/2025
+Adjustment Contract Bubble x 29 (residual: 0)
+3 - 2025-0302-NEWTO - 07/14/2025
+PINK 6 x 1 (residual: 75)</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>75</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Bubb: 2
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Tuohy Diane</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>1 - 2024-0132-NEWTO - 03/20/2024
+unltd 3 x 1 (residual: 48)
+0 - 2025-0046-NEWTO - 02/28/2025
+1 month x 1 (residual: 10)
+2 - 2025-0148-NEWTO - 05/06/2025
+Adjustment Contract Bubble x 1 (residual: 1)</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Tverskaya Alena</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>0 - 2025-0045-NEWTO - 02/28/2025
+Welcome kit x 1 (residual: 3)</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Verdun Elisabetta</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>0 - 2024-0332-NEWTO - 10/21/2024
+1 month x 1 (residual: 10)
+1 - 2025-0050-NEWTO - 03/12/2025
+30 sessions x 1 (residual: 30)</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Bubb: 0
+Cell: 0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
